--- a/wwwroot/files/Constelaciones.xlsx
+++ b/wwwroot/files/Constelaciones.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qma_CeciP\Google Drive\Personal\astro_arduino\2023_07_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\nativosistemas\nscore\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3DC096-2CDE-4EF5-BF59-0019FC23A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
@@ -1088,7 +1089,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1426,2222 +1427,3014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
         <v>722.27800000000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1763</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>238.90100000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2">
+        <v>10.5</v>
+      </c>
+      <c r="J2">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1603</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>206.327</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3">
+        <v>16.5</v>
+      </c>
+      <c r="J3">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
         <v>979.85400000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="I4">
+        <v>22.5</v>
+      </c>
+      <c r="J4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
         <v>652.47299999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I5">
+        <v>19.5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
         <v>237.05699999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="I6">
+        <v>17.5</v>
+      </c>
+      <c r="J6">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
         <v>441.39499999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
         <v>657.43799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="I8">
+        <v>6.5</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
         <v>906.83100000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="I9">
+        <v>14.5</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1763</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>124.86499999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="I10">
+        <v>4.5</v>
+      </c>
+      <c r="J10">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1613</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>756.82799999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="I11">
+        <v>6.5</v>
+      </c>
+      <c r="J11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
         <v>505.87200000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I12">
+        <v>8.5</v>
+      </c>
+      <c r="J12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1683</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>465.19400000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I13">
+        <v>13.5</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1">
         <v>380.11799999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="I14">
+        <v>7.5</v>
+      </c>
+      <c r="J14">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
         <v>183.36699999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="I15">
+        <v>7.5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
         <v>413.49700000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I16">
+        <v>21.5</v>
+      </c>
+      <c r="J16">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>1763</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>494.18400000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="I17">
+        <v>10.5</v>
+      </c>
+      <c r="J17">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
         <v>598.40700000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
         <v>1060.422</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="I19">
+        <v>14.5</v>
+      </c>
+      <c r="J19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
         <v>587.78700000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="I20">
+        <v>22.5</v>
+      </c>
+      <c r="J20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
         <v>1231.4110000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="I21">
+        <v>2.5</v>
+      </c>
+      <c r="J21">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>1603</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>131.59200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="I22">
+        <v>12.5</v>
+      </c>
+      <c r="J22">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>1763</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>93.352999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="I23">
+        <v>14.5</v>
+      </c>
+      <c r="J23">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>1592</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>270.18400000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="I24">
+        <v>6.5</v>
+      </c>
+      <c r="J24">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>1603</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>386.47500000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="I25">
+        <v>12.5</v>
+      </c>
+      <c r="J25">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
         <v>127.696</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I26">
+        <v>18.5</v>
+      </c>
+      <c r="J26">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
         <v>178.71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="I27">
+        <v>15.5</v>
+      </c>
+      <c r="J27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
         <v>183.80099999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="I28">
+        <v>12.5</v>
+      </c>
+      <c r="J28">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
         <v>282.39800000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="I29">
+        <v>11.5</v>
+      </c>
+      <c r="J29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>1589</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>68.447000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="I30">
+        <v>12.5</v>
+      </c>
+      <c r="J30">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
         <v>803.98299999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="I31">
+        <v>20.5</v>
+      </c>
+      <c r="J31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
         <v>188.54900000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="I32">
+        <v>20.5</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>1603</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>179.173</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="I33">
+        <v>5.5</v>
+      </c>
+      <c r="J33">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
         <v>1082.952</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="I34">
+        <v>17.5</v>
+      </c>
+      <c r="J34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
         <v>71.641000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="I35">
+        <v>21.5</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
         <v>1137.9190000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="I36">
+        <v>4.5</v>
+      </c>
+      <c r="J36">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>1763</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>397.50200000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="I37">
+        <v>2.5</v>
+      </c>
+      <c r="J37">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
         <v>513.76099999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="I38">
+        <v>7.5</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>1603</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>365.51299999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="I39">
+        <v>22.5</v>
+      </c>
+      <c r="J39">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="F40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
         <v>1225.1479999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="I40">
+        <v>17.5</v>
+      </c>
+      <c r="J40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>1763</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>248.88499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="I41">
+        <v>3.5</v>
+      </c>
+      <c r="J41">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="F42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
         <v>1302.8440000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="I42">
+        <v>11.5</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>1603</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>243.035</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="I43">
+        <v>3.5</v>
+      </c>
+      <c r="J43">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>1603</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>294.00599999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="I44">
+        <v>21.5</v>
+      </c>
+      <c r="J44">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>1683</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>200.68799999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="I45">
+        <v>22.5</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="F46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
         <v>946.96400000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="I46">
+        <v>11.5</v>
+      </c>
+      <c r="J46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>1683</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>231.95599999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="I47">
+        <v>10.5</v>
+      </c>
+      <c r="J47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="F48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
         <v>290.291</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="I48">
+        <v>6.5</v>
+      </c>
+      <c r="J48">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1">
         <v>538.05200000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="I49">
+        <v>15.5</v>
+      </c>
+      <c r="J49">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
         <v>333.68299999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="I50">
+        <v>15.5</v>
+      </c>
+      <c r="J50">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>1683</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>545.38599999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="I51">
+        <v>7.5</v>
+      </c>
+      <c r="J51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1">
         <v>286.476</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="I52">
+        <v>18.5</v>
+      </c>
+      <c r="J52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>1763</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>153.48400000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="I53">
+        <v>6.5</v>
+      </c>
+      <c r="J53">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>1763</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>209.51300000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="I54">
+        <v>21.5</v>
+      </c>
+      <c r="J54">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>1589</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>481.56900000000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="I55">
+        <v>7.5</v>
+      </c>
+      <c r="J55">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>1603</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>138.35499999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="I56">
+        <v>12.5</v>
+      </c>
+      <c r="J56">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>1763</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>165.29</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="I57">
+        <v>16.5</v>
+      </c>
+      <c r="J57">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>1763</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>291.04500000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="I58">
+        <v>21.5</v>
+      </c>
+      <c r="J58">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="F59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="1">
         <v>948.34</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="I59">
+        <v>17.5</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="F60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
         <v>594.12</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="I60">
+        <v>5.5</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>1603</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>377.666</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="I61">
+        <v>19.5</v>
+      </c>
+      <c r="J61">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="F62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1">
         <v>1120.7940000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="I62">
+        <v>22.5</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1">
         <v>614.99400000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="I63">
+        <v>3.5</v>
+      </c>
+      <c r="J63">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>1603</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>469.31900000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="I64">
+        <v>1.5</v>
+      </c>
+      <c r="J64">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>1763</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>246.739</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="I65">
+        <v>6.5</v>
+      </c>
+      <c r="J65">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="F66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1">
         <v>889.41700000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="I66">
+        <v>1.5</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="F67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1">
         <v>245.375</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="I67">
+        <v>22.5</v>
+      </c>
+      <c r="J67">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>1763</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>673.43399999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="I68">
+        <v>7.5</v>
+      </c>
+      <c r="J68">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>1763</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>220.833</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="I69">
+        <v>8.5</v>
+      </c>
+      <c r="J69">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>1763</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>113.93600000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="I70">
+        <v>4.5</v>
+      </c>
+      <c r="J70">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="F71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="1">
         <v>79.932000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="I71">
+        <v>19.5</v>
+      </c>
+      <c r="J71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="F72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1">
         <v>867.43200000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="I72">
+        <v>18.5</v>
+      </c>
+      <c r="J72">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="1">
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1">
         <v>496.78300000000002</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="I73">
+        <v>16.5</v>
+      </c>
+      <c r="J73">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E74" s="1">
+      <c r="F74" s="1">
         <v>1763</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>474.76400000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>1683</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>109.114</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="I75">
+        <v>18.5</v>
+      </c>
+      <c r="J75">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="1">
+      <c r="F76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1">
         <v>639.928</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="I76">
+        <v>18.5</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E77" s="1">
+      <c r="F77" s="1">
         <v>1683</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>313.51499999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="I77">
+        <v>10.5</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="F78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="1">
         <v>797.24900000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="I78">
+        <v>4.5</v>
+      </c>
+      <c r="J78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E79" s="1">
+      <c r="F79" s="1">
         <v>1763</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>251.512</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="I79">
+        <v>19.5</v>
+      </c>
+      <c r="J79">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="F80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="1">
         <v>131.84700000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="I80">
+        <v>2.5</v>
+      </c>
+      <c r="J80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="1">
+      <c r="F81" s="1">
         <v>1589</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>109.97799999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="I81">
+        <v>15.5</v>
+      </c>
+      <c r="J81">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>1603</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>294.577</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="I82">
+        <v>23.5</v>
+      </c>
+      <c r="J82">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="F83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="1">
         <v>1279.6600000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="I83">
+        <v>11.5</v>
+      </c>
+      <c r="J83">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="1">
+      <c r="F84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="1">
         <v>255.864</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="I84">
+        <v>15.5</v>
+      </c>
+      <c r="J84">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E85" s="1">
+      <c r="F85" s="1">
         <v>1763</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>499.649</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="I85">
+        <v>9.5</v>
+      </c>
+      <c r="J85">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="1">
+      <c r="F86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1">
         <v>1294.4280000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="I86">
+        <v>13.5</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>1603</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>141.352</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="I87">
+        <v>7.5</v>
+      </c>
+      <c r="J87">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E88" s="1">
+      <c r="F88" s="1">
         <v>1603</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>268.16500000000002</v>
+      </c>
+      <c r="I88">
+        <v>19.5</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Andrómeda (constelación)" display="https://es.wikipedia.org/wiki/Andr%C3%B3meda_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F1" r:id="rId2" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A2" r:id="rId3" tooltip="Antlia" display="https://es.wikipedia.org/wiki/Antlia"/>
-    <hyperlink ref="F2" r:id="rId4" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A3" r:id="rId5" tooltip="Apus" display="https://es.wikipedia.org/wiki/Apus"/>
-    <hyperlink ref="F3" r:id="rId6" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="Aquarius (constelación)" display="https://es.wikipedia.org/wiki/Aquarius_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F4" r:id="rId8" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A5" r:id="rId9" tooltip="Aquila (constelación)" display="https://es.wikipedia.org/wiki/Aquila_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F5" r:id="rId10" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A6" r:id="rId11" tooltip="Ara (constelación)" display="https://es.wikipedia.org/wiki/Ara_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F6" r:id="rId12" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A7" r:id="rId13" tooltip="Aries (constelación)" display="https://es.wikipedia.org/wiki/Aries_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F7" r:id="rId14" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A8" r:id="rId15" tooltip="Auriga (constelación)" display="https://es.wikipedia.org/wiki/Auriga_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F8" r:id="rId16" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A9" r:id="rId17" tooltip="Bootes" display="https://es.wikipedia.org/wiki/Bootes"/>
-    <hyperlink ref="F9" r:id="rId18" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A10" r:id="rId19" tooltip="Caelum" display="https://es.wikipedia.org/wiki/Caelum"/>
-    <hyperlink ref="F10" r:id="rId20" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A11" r:id="rId21" tooltip="Camelopardalis" display="https://es.wikipedia.org/wiki/Camelopardalis"/>
-    <hyperlink ref="F11" r:id="rId22" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius"/>
-    <hyperlink ref="A12" r:id="rId23" tooltip="Cáncer (constelación)" display="https://es.wikipedia.org/wiki/C%C3%A1ncer_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F12" r:id="rId24" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A13" r:id="rId25" tooltip="Canes Venatici" display="https://es.wikipedia.org/wiki/Canes_Venatici"/>
-    <hyperlink ref="F13" r:id="rId26" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A14" r:id="rId27" tooltip="Canis Maior" display="https://es.wikipedia.org/wiki/Canis_Maior"/>
-    <hyperlink ref="F14" r:id="rId28" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A15" r:id="rId29" tooltip="Canis Minor" display="https://es.wikipedia.org/wiki/Canis_Minor"/>
-    <hyperlink ref="F15" r:id="rId30" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A16" r:id="rId31" tooltip="Capricornus" display="https://es.wikipedia.org/wiki/Capricornus"/>
-    <hyperlink ref="F16" r:id="rId32" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A17" r:id="rId33" tooltip="Carina" display="https://es.wikipedia.org/wiki/Carina"/>
-    <hyperlink ref="F17" r:id="rId34" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A18" r:id="rId35" tooltip="Cassiopeia" display="https://es.wikipedia.org/wiki/Cassiopeia"/>
-    <hyperlink ref="F18" r:id="rId36" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A19" r:id="rId37" tooltip="Centaurus" display="https://es.wikipedia.org/wiki/Centaurus"/>
-    <hyperlink ref="F19" r:id="rId38" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A20" r:id="rId39" tooltip="Cepheus" display="https://es.wikipedia.org/wiki/Cepheus"/>
-    <hyperlink ref="F20" r:id="rId40" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A21" r:id="rId41" tooltip="Cetus" display="https://es.wikipedia.org/wiki/Cetus"/>
-    <hyperlink ref="F21" r:id="rId42" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A22" r:id="rId43" tooltip="Chamaeleon" display="https://es.wikipedia.org/wiki/Chamaeleon"/>
-    <hyperlink ref="F22" r:id="rId44" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A23" r:id="rId45" tooltip="Circinus" display="https://es.wikipedia.org/wiki/Circinus"/>
-    <hyperlink ref="F23" r:id="rId46" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A24" r:id="rId47" tooltip="Columba (constelación)" display="https://es.wikipedia.org/wiki/Columba_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F24" r:id="rId48" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius"/>
-    <hyperlink ref="A25" r:id="rId49" tooltip="Coma Berenices" display="https://es.wikipedia.org/wiki/Coma_Berenices"/>
-    <hyperlink ref="F25" r:id="rId50" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A26" r:id="rId51" tooltip="Corona Australis" display="https://es.wikipedia.org/wiki/Corona_Australis"/>
-    <hyperlink ref="F26" r:id="rId52" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A27" r:id="rId53" tooltip="Corona Borealis" display="https://es.wikipedia.org/wiki/Corona_Borealis"/>
-    <hyperlink ref="F27" r:id="rId54" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A28" r:id="rId55" tooltip="Corvus (constelación)" display="https://es.wikipedia.org/wiki/Corvus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F28" r:id="rId56" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A29" r:id="rId57" tooltip="Crater (constelación)" display="https://es.wikipedia.org/wiki/Crater_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F29" r:id="rId58" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A30" r:id="rId59" tooltip="Crux" display="https://es.wikipedia.org/wiki/Crux"/>
-    <hyperlink ref="F30" r:id="rId60" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius"/>
-    <hyperlink ref="A31" r:id="rId61" tooltip="Cygnus (constelación)" display="https://es.wikipedia.org/wiki/Cygnus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F31" r:id="rId62" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A32" r:id="rId63" tooltip="Delphinus (constelación)" display="https://es.wikipedia.org/wiki/Delphinus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F32" r:id="rId64" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A33" r:id="rId65" tooltip="Dorado (constelación)" display="https://es.wikipedia.org/wiki/Dorado_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F33" r:id="rId66" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A34" r:id="rId67" tooltip="Draco (constelación)" display="https://es.wikipedia.org/wiki/Draco_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F34" r:id="rId68" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A35" r:id="rId69" tooltip="Equuleus" display="https://es.wikipedia.org/wiki/Equuleus"/>
-    <hyperlink ref="F35" r:id="rId70" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A36" r:id="rId71" tooltip="Eridanus" display="https://es.wikipedia.org/wiki/Eridanus"/>
-    <hyperlink ref="F36" r:id="rId72" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A37" r:id="rId73" tooltip="Fornax" display="https://es.wikipedia.org/wiki/Fornax"/>
-    <hyperlink ref="F37" r:id="rId74" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A38" r:id="rId75" tooltip="Gemini (constelación)" display="https://es.wikipedia.org/wiki/Gemini_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F38" r:id="rId76" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A39" r:id="rId77" tooltip="Grus (constelación)" display="https://es.wikipedia.org/wiki/Grus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F39" r:id="rId78" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A40" r:id="rId79" tooltip="Hércules (constelación)" display="https://es.wikipedia.org/wiki/H%C3%A9rcules_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F40" r:id="rId80" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A41" r:id="rId81" tooltip="Horologium" display="https://es.wikipedia.org/wiki/Horologium"/>
-    <hyperlink ref="F41" r:id="rId82" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A42" r:id="rId83" tooltip="Hydra (constelación)" display="https://es.wikipedia.org/wiki/Hydra_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F42" r:id="rId84" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A43" r:id="rId85" tooltip="Hydrus" display="https://es.wikipedia.org/wiki/Hydrus"/>
-    <hyperlink ref="F43" r:id="rId86" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A44" r:id="rId87" tooltip="Indus (constelación)" display="https://es.wikipedia.org/wiki/Indus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F44" r:id="rId88" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A45" r:id="rId89" tooltip="Lacerta" display="https://es.wikipedia.org/wiki/Lacerta"/>
-    <hyperlink ref="F45" r:id="rId90" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A46" r:id="rId91" tooltip="Leo (constelación)" display="https://es.wikipedia.org/wiki/Leo_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F46" r:id="rId92" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A47" r:id="rId93" tooltip="Leo Minor" display="https://es.wikipedia.org/wiki/Leo_Minor"/>
-    <hyperlink ref="F47" r:id="rId94" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A48" r:id="rId95" tooltip="Lepus (constelación)" display="https://es.wikipedia.org/wiki/Lepus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F48" r:id="rId96" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A49" r:id="rId97" tooltip="Libra (constelación)" display="https://es.wikipedia.org/wiki/Libra_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F49" r:id="rId98" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A50" r:id="rId99" tooltip="Lupus (constelación)" display="https://es.wikipedia.org/wiki/Lupus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F50" r:id="rId100" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A51" r:id="rId101" tooltip="Lynx (constelación)" display="https://es.wikipedia.org/wiki/Lynx_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F51" r:id="rId102" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A52" r:id="rId103" tooltip="Lyra" display="https://es.wikipedia.org/wiki/Lyra"/>
-    <hyperlink ref="F52" r:id="rId104" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A53" r:id="rId105" tooltip="Mensa (constelación)" display="https://es.wikipedia.org/wiki/Mensa_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F53" r:id="rId106" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A54" r:id="rId107" tooltip="Microscopium" display="https://es.wikipedia.org/wiki/Microscopium"/>
-    <hyperlink ref="F54" r:id="rId108" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A55" r:id="rId109" tooltip="Monoceros" display="https://es.wikipedia.org/wiki/Monoceros"/>
-    <hyperlink ref="F55" r:id="rId110" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius"/>
-    <hyperlink ref="A56" r:id="rId111" tooltip="Musca" display="https://es.wikipedia.org/wiki/Musca"/>
-    <hyperlink ref="F56" r:id="rId112" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A57" r:id="rId113" tooltip="Norma (constelación)" display="https://es.wikipedia.org/wiki/Norma_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F57" r:id="rId114" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A58" r:id="rId115" tooltip="Octans" display="https://es.wikipedia.org/wiki/Octans"/>
-    <hyperlink ref="F58" r:id="rId116" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A59" r:id="rId117" tooltip="Ophiuchus" display="https://es.wikipedia.org/wiki/Ophiuchus"/>
-    <hyperlink ref="F59" r:id="rId118" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A60" r:id="rId119" tooltip="Orion (constelación)" display="https://es.wikipedia.org/wiki/Orion_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F60" r:id="rId120" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A61" r:id="rId121" tooltip="Pavo (constelación)" display="https://es.wikipedia.org/wiki/Pavo_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F61" r:id="rId122" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A62" r:id="rId123" tooltip="Pegasus (constelación)" display="https://es.wikipedia.org/wiki/Pegasus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F62" r:id="rId124" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A63" r:id="rId125" tooltip="Perseus" display="https://es.wikipedia.org/wiki/Perseus"/>
-    <hyperlink ref="F63" r:id="rId126" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A64" r:id="rId127" tooltip="Phoenix (constelación)" display="https://es.wikipedia.org/wiki/Phoenix_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F64" r:id="rId128" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A65" r:id="rId129" tooltip="Pictor" display="https://es.wikipedia.org/wiki/Pictor"/>
-    <hyperlink ref="F65" r:id="rId130" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A66" r:id="rId131" tooltip="Pisces (constelación)" display="https://es.wikipedia.org/wiki/Pisces_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F66" r:id="rId132" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A67" r:id="rId133" tooltip="Piscis Austrinus" display="https://es.wikipedia.org/wiki/Piscis_Austrinus"/>
-    <hyperlink ref="F67" r:id="rId134" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A68" r:id="rId135" tooltip="Puppis" display="https://es.wikipedia.org/wiki/Puppis"/>
-    <hyperlink ref="F68" r:id="rId136" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A69" r:id="rId137" tooltip="Pyxis" display="https://es.wikipedia.org/wiki/Pyxis"/>
-    <hyperlink ref="F69" r:id="rId138" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A70" r:id="rId139" tooltip="Reticulum" display="https://es.wikipedia.org/wiki/Reticulum"/>
-    <hyperlink ref="F70" r:id="rId140" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A71" r:id="rId141" tooltip="Sagitta" display="https://es.wikipedia.org/wiki/Sagitta"/>
-    <hyperlink ref="F71" r:id="rId142" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A72" r:id="rId143" tooltip="Sagittarius" display="https://es.wikipedia.org/wiki/Sagittarius"/>
-    <hyperlink ref="F72" r:id="rId144" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A73" r:id="rId145" tooltip="Scorpius" display="https://es.wikipedia.org/wiki/Scorpius"/>
-    <hyperlink ref="F73" r:id="rId146" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A74" r:id="rId147" tooltip="Sculptor" display="https://es.wikipedia.org/wiki/Sculptor"/>
-    <hyperlink ref="F74" r:id="rId148" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A75" r:id="rId149" tooltip="Scutum (constelación)" display="https://es.wikipedia.org/wiki/Scutum_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F75" r:id="rId150" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A76" r:id="rId151" tooltip="Serpens" display="https://es.wikipedia.org/wiki/Serpens"/>
-    <hyperlink ref="F76" r:id="rId152" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A77" r:id="rId153" tooltip="Sextans" display="https://es.wikipedia.org/wiki/Sextans"/>
-    <hyperlink ref="F77" r:id="rId154" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius"/>
-    <hyperlink ref="A78" r:id="rId155" tooltip="Taurus (constelación)" display="https://es.wikipedia.org/wiki/Taurus_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F78" r:id="rId156" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A79" r:id="rId157" tooltip="Telescopium" display="https://es.wikipedia.org/wiki/Telescopium"/>
-    <hyperlink ref="F79" r:id="rId158" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A80" r:id="rId159" tooltip="Triangulum" display="https://es.wikipedia.org/wiki/Triangulum"/>
-    <hyperlink ref="F80" r:id="rId160" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A81" r:id="rId161" tooltip="Triangulum Australe" display="https://es.wikipedia.org/wiki/Triangulum_Australe"/>
-    <hyperlink ref="F81" r:id="rId162" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius"/>
-    <hyperlink ref="A82" r:id="rId163" tooltip="Tucana" display="https://es.wikipedia.org/wiki/Tucana"/>
-    <hyperlink ref="F82" r:id="rId164" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A83" r:id="rId165" tooltip="Ursa Maior" display="https://es.wikipedia.org/wiki/Ursa_Maior"/>
-    <hyperlink ref="F83" r:id="rId166" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A84" r:id="rId167" tooltip="Ursa Minor" display="https://es.wikipedia.org/wiki/Ursa_Minor"/>
-    <hyperlink ref="F84" r:id="rId168" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A85" r:id="rId169" tooltip="Vela (constelación)" display="https://es.wikipedia.org/wiki/Vela_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F85" r:id="rId170" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille"/>
-    <hyperlink ref="A86" r:id="rId171" tooltip="Virgo (constelación)" display="https://es.wikipedia.org/wiki/Virgo_(constelaci%C3%B3n)"/>
-    <hyperlink ref="F86" r:id="rId172" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo"/>
-    <hyperlink ref="A87" r:id="rId173" tooltip="Volans" display="https://es.wikipedia.org/wiki/Volans"/>
-    <hyperlink ref="F87" r:id="rId174" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
-    <hyperlink ref="A88" r:id="rId175" tooltip="Vulpecula" display="https://es.wikipedia.org/wiki/Vulpecula"/>
-    <hyperlink ref="F88" r:id="rId176" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer"/>
+    <hyperlink ref="B1" r:id="rId1" tooltip="Andrómeda (constelación)" display="https://es.wikipedia.org/wiki/Andr%C3%B3meda_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G1" r:id="rId2" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" tooltip="Antlia" display="https://es.wikipedia.org/wiki/Antlia" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G2" r:id="rId4" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId5" tooltip="Apus" display="https://es.wikipedia.org/wiki/Apus" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G3" r:id="rId6" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" tooltip="Aquarius (constelación)" display="https://es.wikipedia.org/wiki/Aquarius_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G4" r:id="rId8" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B5" r:id="rId9" tooltip="Aquila (constelación)" display="https://es.wikipedia.org/wiki/Aquila_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G5" r:id="rId10" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B6" r:id="rId11" tooltip="Ara (constelación)" display="https://es.wikipedia.org/wiki/Ara_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G6" r:id="rId12" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B7" r:id="rId13" tooltip="Aries (constelación)" display="https://es.wikipedia.org/wiki/Aries_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G7" r:id="rId14" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B8" r:id="rId15" tooltip="Auriga (constelación)" display="https://es.wikipedia.org/wiki/Auriga_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G8" r:id="rId16" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId17" tooltip="Bootes" display="https://es.wikipedia.org/wiki/Bootes" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G9" r:id="rId18" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B10" r:id="rId19" tooltip="Caelum" display="https://es.wikipedia.org/wiki/Caelum" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G10" r:id="rId20" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B11" r:id="rId21" tooltip="Camelopardalis" display="https://es.wikipedia.org/wiki/Camelopardalis" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G11" r:id="rId22" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B12" r:id="rId23" tooltip="Cáncer (constelación)" display="https://es.wikipedia.org/wiki/C%C3%A1ncer_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G12" r:id="rId24" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B13" r:id="rId25" tooltip="Canes Venatici" display="https://es.wikipedia.org/wiki/Canes_Venatici" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G13" r:id="rId26" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B14" r:id="rId27" tooltip="Canis Maior" display="https://es.wikipedia.org/wiki/Canis_Maior" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G14" r:id="rId28" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B15" r:id="rId29" tooltip="Canis Minor" display="https://es.wikipedia.org/wiki/Canis_Minor" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G15" r:id="rId30" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B16" r:id="rId31" tooltip="Capricornus" display="https://es.wikipedia.org/wiki/Capricornus" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G16" r:id="rId32" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B17" r:id="rId33" tooltip="Carina" display="https://es.wikipedia.org/wiki/Carina" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G17" r:id="rId34" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B18" r:id="rId35" tooltip="Cassiopeia" display="https://es.wikipedia.org/wiki/Cassiopeia" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G18" r:id="rId36" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B19" r:id="rId37" tooltip="Centaurus" display="https://es.wikipedia.org/wiki/Centaurus" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G19" r:id="rId38" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B20" r:id="rId39" tooltip="Cepheus" display="https://es.wikipedia.org/wiki/Cepheus" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G20" r:id="rId40" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B21" r:id="rId41" tooltip="Cetus" display="https://es.wikipedia.org/wiki/Cetus" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G21" r:id="rId42" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B22" r:id="rId43" tooltip="Chamaeleon" display="https://es.wikipedia.org/wiki/Chamaeleon" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G22" r:id="rId44" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B23" r:id="rId45" tooltip="Circinus" display="https://es.wikipedia.org/wiki/Circinus" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G23" r:id="rId46" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B24" r:id="rId47" tooltip="Columba (constelación)" display="https://es.wikipedia.org/wiki/Columba_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G24" r:id="rId48" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B25" r:id="rId49" tooltip="Coma Berenices" display="https://es.wikipedia.org/wiki/Coma_Berenices" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G25" r:id="rId50" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B26" r:id="rId51" tooltip="Corona Australis" display="https://es.wikipedia.org/wiki/Corona_Australis" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G26" r:id="rId52" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B27" r:id="rId53" tooltip="Corona Borealis" display="https://es.wikipedia.org/wiki/Corona_Borealis" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G27" r:id="rId54" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B28" r:id="rId55" tooltip="Corvus (constelación)" display="https://es.wikipedia.org/wiki/Corvus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G28" r:id="rId56" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B29" r:id="rId57" tooltip="Crater (constelación)" display="https://es.wikipedia.org/wiki/Crater_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G29" r:id="rId58" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B30" r:id="rId59" tooltip="Crux" display="https://es.wikipedia.org/wiki/Crux" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G30" r:id="rId60" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B31" r:id="rId61" tooltip="Cygnus (constelación)" display="https://es.wikipedia.org/wiki/Cygnus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G31" r:id="rId62" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B32" r:id="rId63" tooltip="Delphinus (constelación)" display="https://es.wikipedia.org/wiki/Delphinus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G32" r:id="rId64" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B33" r:id="rId65" tooltip="Dorado (constelación)" display="https://es.wikipedia.org/wiki/Dorado_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G33" r:id="rId66" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B34" r:id="rId67" tooltip="Draco (constelación)" display="https://es.wikipedia.org/wiki/Draco_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G34" r:id="rId68" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B35" r:id="rId69" tooltip="Equuleus" display="https://es.wikipedia.org/wiki/Equuleus" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G35" r:id="rId70" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B36" r:id="rId71" tooltip="Eridanus" display="https://es.wikipedia.org/wiki/Eridanus" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G36" r:id="rId72" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B37" r:id="rId73" tooltip="Fornax" display="https://es.wikipedia.org/wiki/Fornax" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G37" r:id="rId74" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B38" r:id="rId75" tooltip="Gemini (constelación)" display="https://es.wikipedia.org/wiki/Gemini_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G38" r:id="rId76" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B39" r:id="rId77" tooltip="Grus (constelación)" display="https://es.wikipedia.org/wiki/Grus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G39" r:id="rId78" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B40" r:id="rId79" tooltip="Hércules (constelación)" display="https://es.wikipedia.org/wiki/H%C3%A9rcules_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G40" r:id="rId80" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B41" r:id="rId81" tooltip="Horologium" display="https://es.wikipedia.org/wiki/Horologium" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G41" r:id="rId82" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B42" r:id="rId83" tooltip="Hydra (constelación)" display="https://es.wikipedia.org/wiki/Hydra_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G42" r:id="rId84" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B43" r:id="rId85" tooltip="Hydrus" display="https://es.wikipedia.org/wiki/Hydrus" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G43" r:id="rId86" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B44" r:id="rId87" tooltip="Indus (constelación)" display="https://es.wikipedia.org/wiki/Indus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G44" r:id="rId88" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B45" r:id="rId89" tooltip="Lacerta" display="https://es.wikipedia.org/wiki/Lacerta" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G45" r:id="rId90" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B46" r:id="rId91" tooltip="Leo (constelación)" display="https://es.wikipedia.org/wiki/Leo_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G46" r:id="rId92" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B47" r:id="rId93" tooltip="Leo Minor" display="https://es.wikipedia.org/wiki/Leo_Minor" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G47" r:id="rId94" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B48" r:id="rId95" tooltip="Lepus (constelación)" display="https://es.wikipedia.org/wiki/Lepus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G48" r:id="rId96" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B49" r:id="rId97" tooltip="Libra (constelación)" display="https://es.wikipedia.org/wiki/Libra_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G49" r:id="rId98" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B50" r:id="rId99" tooltip="Lupus (constelación)" display="https://es.wikipedia.org/wiki/Lupus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G50" r:id="rId100" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B51" r:id="rId101" tooltip="Lynx (constelación)" display="https://es.wikipedia.org/wiki/Lynx_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G51" r:id="rId102" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B52" r:id="rId103" tooltip="Lyra" display="https://es.wikipedia.org/wiki/Lyra" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G52" r:id="rId104" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B53" r:id="rId105" tooltip="Mensa (constelación)" display="https://es.wikipedia.org/wiki/Mensa_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G53" r:id="rId106" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B54" r:id="rId107" tooltip="Microscopium" display="https://es.wikipedia.org/wiki/Microscopium" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G54" r:id="rId108" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B55" r:id="rId109" tooltip="Monoceros" display="https://es.wikipedia.org/wiki/Monoceros" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G55" r:id="rId110" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B56" r:id="rId111" tooltip="Musca" display="https://es.wikipedia.org/wiki/Musca" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G56" r:id="rId112" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B57" r:id="rId113" tooltip="Norma (constelación)" display="https://es.wikipedia.org/wiki/Norma_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G57" r:id="rId114" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B58" r:id="rId115" tooltip="Octans" display="https://es.wikipedia.org/wiki/Octans" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G58" r:id="rId116" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B59" r:id="rId117" tooltip="Ophiuchus" display="https://es.wikipedia.org/wiki/Ophiuchus" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G59" r:id="rId118" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B60" r:id="rId119" tooltip="Orion (constelación)" display="https://es.wikipedia.org/wiki/Orion_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G60" r:id="rId120" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B61" r:id="rId121" tooltip="Pavo (constelación)" display="https://es.wikipedia.org/wiki/Pavo_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G61" r:id="rId122" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B62" r:id="rId123" tooltip="Pegasus (constelación)" display="https://es.wikipedia.org/wiki/Pegasus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G62" r:id="rId124" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B63" r:id="rId125" tooltip="Perseus" display="https://es.wikipedia.org/wiki/Perseus" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G63" r:id="rId126" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B64" r:id="rId127" tooltip="Phoenix (constelación)" display="https://es.wikipedia.org/wiki/Phoenix_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G64" r:id="rId128" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B65" r:id="rId129" tooltip="Pictor" display="https://es.wikipedia.org/wiki/Pictor" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G65" r:id="rId130" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B66" r:id="rId131" tooltip="Pisces (constelación)" display="https://es.wikipedia.org/wiki/Pisces_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G66" r:id="rId132" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B67" r:id="rId133" tooltip="Piscis Austrinus" display="https://es.wikipedia.org/wiki/Piscis_Austrinus" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G67" r:id="rId134" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B68" r:id="rId135" tooltip="Puppis" display="https://es.wikipedia.org/wiki/Puppis" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G68" r:id="rId136" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B69" r:id="rId137" tooltip="Pyxis" display="https://es.wikipedia.org/wiki/Pyxis" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G69" r:id="rId138" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B70" r:id="rId139" tooltip="Reticulum" display="https://es.wikipedia.org/wiki/Reticulum" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G70" r:id="rId140" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B71" r:id="rId141" tooltip="Sagitta" display="https://es.wikipedia.org/wiki/Sagitta" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G71" r:id="rId142" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B72" r:id="rId143" tooltip="Sagittarius" display="https://es.wikipedia.org/wiki/Sagittarius" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G72" r:id="rId144" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B73" r:id="rId145" tooltip="Scorpius" display="https://es.wikipedia.org/wiki/Scorpius" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G73" r:id="rId146" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B74" r:id="rId147" tooltip="Sculptor" display="https://es.wikipedia.org/wiki/Sculptor" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G74" r:id="rId148" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B75" r:id="rId149" tooltip="Scutum (constelación)" display="https://es.wikipedia.org/wiki/Scutum_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="G75" r:id="rId150" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B76" r:id="rId151" tooltip="Serpens" display="https://es.wikipedia.org/wiki/Serpens" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G76" r:id="rId152" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B77" r:id="rId153" tooltip="Sextans" display="https://es.wikipedia.org/wiki/Sextans" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G77" r:id="rId154" tooltip="Johannes Hevelius" display="https://es.wikipedia.org/wiki/Johannes_Hevelius" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B78" r:id="rId155" tooltip="Taurus (constelación)" display="https://es.wikipedia.org/wiki/Taurus_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G78" r:id="rId156" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B79" r:id="rId157" tooltip="Telescopium" display="https://es.wikipedia.org/wiki/Telescopium" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G79" r:id="rId158" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B80" r:id="rId159" tooltip="Triangulum" display="https://es.wikipedia.org/wiki/Triangulum" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G80" r:id="rId160" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B81" r:id="rId161" tooltip="Triangulum Australe" display="https://es.wikipedia.org/wiki/Triangulum_Australe" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G81" r:id="rId162" tooltip="Petrus Plancius" display="https://es.wikipedia.org/wiki/Petrus_Plancius" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B82" r:id="rId163" tooltip="Tucana" display="https://es.wikipedia.org/wiki/Tucana" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G82" r:id="rId164" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B83" r:id="rId165" tooltip="Ursa Maior" display="https://es.wikipedia.org/wiki/Ursa_Maior" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G83" r:id="rId166" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B84" r:id="rId167" tooltip="Ursa Minor" display="https://es.wikipedia.org/wiki/Ursa_Minor" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G84" r:id="rId168" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B85" r:id="rId169" tooltip="Vela (constelación)" display="https://es.wikipedia.org/wiki/Vela_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="G85" r:id="rId170" tooltip="Nicolas-Louis de Lacaille" display="https://es.wikipedia.org/wiki/Nicolas-Louis_de_Lacaille" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B86" r:id="rId171" tooltip="Virgo (constelación)" display="https://es.wikipedia.org/wiki/Virgo_(constelaci%C3%B3n)" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G86" r:id="rId172" tooltip="Claudio Ptolomeo" display="https://es.wikipedia.org/wiki/Claudio_Ptolomeo" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B87" r:id="rId173" tooltip="Volans" display="https://es.wikipedia.org/wiki/Volans" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G87" r:id="rId174" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B88" r:id="rId175" tooltip="Vulpecula" display="https://es.wikipedia.org/wiki/Vulpecula" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G88" r:id="rId176" tooltip="Johann Bayer" display="https://es.wikipedia.org/wiki/Johann_Bayer" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
